--- a/sbmlutils/tests/data/models/galactose/galactose_annotations.xlsx
+++ b/sbmlutils/tests/data/models/galactose/galactose_annotations.xlsx
@@ -5,991 +5,996 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="183" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="325">
   <si>
-    <t>pattern</t>
-  </si>
-  <si>
-    <t>sbml_type</t>
-  </si>
-  <si>
-    <t>annotation_type</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>qualifier</t>
-  </si>
-  <si>
-    <t>collection</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>#model</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>RDF</t>
-  </si>
-  <si>
-    <t>SBO:0000293</t>
-  </si>
-  <si>
-    <t>BQM_IS</t>
-  </si>
-  <si>
-    <t>biomodels.sbo</t>
-  </si>
-  <si>
-    <t>non-spatial continuous framework</t>
-  </si>
-  <si>
-    <t>^galactose_</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>BQB_HAS_TAXON</t>
-  </si>
-  <si>
-    <t>taxonomy</t>
-  </si>
-  <si>
-    <t>Homo sapiens (Human)</t>
-  </si>
-  <si>
-    <t>BTO:0000759</t>
-  </si>
-  <si>
-    <t>BQB_IS</t>
-  </si>
-  <si>
-    <t>bto</t>
-  </si>
-  <si>
-    <t>liver</t>
-  </si>
-  <si>
-    <t>UBERON:0002107</t>
-  </si>
-  <si>
-    <t>uberon</t>
-  </si>
-  <si>
-    <t>FMA:7197</t>
-  </si>
-  <si>
-    <t>fma</t>
-  </si>
-  <si>
-    <t>BTO:0000575</t>
-  </si>
-  <si>
-    <t>hepatocyte</t>
-  </si>
-  <si>
-    <t>FMA:14515</t>
-  </si>
-  <si>
-    <t>PW:0000042</t>
-  </si>
-  <si>
-    <t>BQB_IS_VERSION_OF</t>
-  </si>
-  <si>
-    <t>pw</t>
-  </si>
-  <si>
-    <t>galactose metabolic pathway</t>
-  </si>
-  <si>
-    <t>map00052</t>
-  </si>
-  <si>
-    <t>kegg.pathway</t>
-  </si>
-  <si>
-    <t>Galactose metabolism</t>
-  </si>
-  <si>
-    <t>SMP00043</t>
-  </si>
-  <si>
-    <t>smpdb</t>
-  </si>
-  <si>
-    <t>GO:0019388</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>galactose catabolic process</t>
-  </si>
-  <si>
-    <t>REACTOME:R-HSA-70370.1</t>
-  </si>
-  <si>
-    <t>reactome</t>
-  </si>
-  <si>
-    <t>Galactose catabolism</t>
-  </si>
-  <si>
-    <t>PWY-6317</t>
-  </si>
-  <si>
-    <t>metacyc</t>
-  </si>
-  <si>
-    <t>D-galactose degradation I</t>
-  </si>
-  <si>
-    <t># compartment</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>compartment</t>
-  </si>
-  <si>
-    <t>SBO:0000290</t>
-  </si>
-  <si>
-    <t>physical compartment</t>
-  </si>
-  <si>
-    <t>GO:0005623</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>FMA:68646</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>GO:0005829</t>
-  </si>
-  <si>
-    <t>cytosol</t>
-  </si>
-  <si>
-    <t>FMA:66836</t>
-  </si>
-  <si>
-    <t>portion of cytosol</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>GO:0005886</t>
-  </si>
-  <si>
-    <t>plasma membrane</t>
-  </si>
-  <si>
-    <t>FMA:63841</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>GO:0005615</t>
-  </si>
-  <si>
-    <t>extracellular space</t>
-  </si>
-  <si>
-    <t>FMA:70022</t>
-  </si>
-  <si>
-    <t># parameters</t>
-  </si>
-  <si>
-    <t>^\w+_kcat$</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>SBO:0000025</t>
-  </si>
-  <si>
-    <t>catalytic rate constant</t>
-  </si>
-  <si>
-    <t>^\w+_k_\w+$</t>
-  </si>
-  <si>
-    <t>SBO:0000027</t>
-  </si>
-  <si>
-    <t>MichaelBQB_IS constant</t>
-  </si>
-  <si>
-    <t>^\w+_keq$</t>
-  </si>
-  <si>
-    <t>SBO:0000281</t>
-  </si>
-  <si>
-    <t>equilibrium constant</t>
-  </si>
-  <si>
-    <t>^\w+_ki_\w+$</t>
-  </si>
-  <si>
-    <t>SBO:0000261</t>
-  </si>
-  <si>
-    <t>inhibitory constant</t>
-  </si>
-  <si>
-    <t># reactions</t>
-  </si>
-  <si>
-    <t>^\w+__H2OTM$</t>
-  </si>
-  <si>
-    <t>reaction</t>
-  </si>
-  <si>
-    <t>SBO:0000185</t>
-  </si>
-  <si>
-    <t>transport reaction</t>
-  </si>
-  <si>
-    <t>^\w+__GLUT2_GAL$</t>
-  </si>
-  <si>
-    <t>P11168</t>
-  </si>
-  <si>
-    <t>uniprot</t>
-  </si>
-  <si>
-    <t>Solute carrier family 2, facilitated glucose transporter member 2</t>
-  </si>
-  <si>
-    <t>OMIM:227810</t>
-  </si>
-  <si>
-    <t>BQB_HAS_PROPERTY</t>
-  </si>
-  <si>
-    <t>omim</t>
-  </si>
-  <si>
-    <t>Fanconi-Bickel syndrome</t>
-  </si>
-  <si>
-    <t>^\w+__GLUT2_GALM$</t>
-  </si>
-  <si>
-    <t>^\w+__GALK\w{0,1}$</t>
-  </si>
-  <si>
-    <t>SBO:0000176</t>
-  </si>
-  <si>
-    <t>biochemical reaction</t>
-  </si>
-  <si>
-    <t>2.7.1.6</t>
-  </si>
-  <si>
-    <t>ec-code</t>
-  </si>
-  <si>
-    <t>P51570</t>
-  </si>
-  <si>
-    <t>R01092</t>
-  </si>
-  <si>
-    <t>kegg.reaction</t>
-  </si>
-  <si>
-    <t>rhea</t>
-  </si>
-  <si>
-    <t>REACTOME:R-HSA-70355.1</t>
-  </si>
-  <si>
-    <t>BQB_IS_DESCRIBED_BY</t>
-  </si>
-  <si>
-    <t>pubmed</t>
-  </si>
-  <si>
-    <t>Timson2003</t>
-  </si>
-  <si>
-    <t>GALK_kcat</t>
-  </si>
-  <si>
-    <t>sabiork.kineticrecord</t>
-  </si>
-  <si>
-    <t>GALK_k_atp</t>
-  </si>
-  <si>
-    <t>GALK_k_gal</t>
-  </si>
-  <si>
-    <t>Sangiuolo2004</t>
-  </si>
-  <si>
-    <t>^\w+__IMP\w{0,1}$</t>
-  </si>
-  <si>
-    <t>3.1.3.25</t>
-  </si>
-  <si>
-    <t>P29218</t>
-  </si>
-  <si>
-    <t>^\w+__GALT\w{0,2}$</t>
-  </si>
-  <si>
-    <t>2.7.7.12</t>
-  </si>
-  <si>
-    <t>P07902</t>
-  </si>
-  <si>
-    <t>R00955</t>
-  </si>
-  <si>
-    <t>^\w+__GALE$</t>
-  </si>
-  <si>
-    <t>5.1.3.2</t>
-  </si>
-  <si>
-    <t>Q14376</t>
-  </si>
-  <si>
-    <t>R00291</t>
-  </si>
-  <si>
-    <t>GALE_k_udpgal</t>
-  </si>
-  <si>
-    <t>GALE_kcat</t>
-  </si>
-  <si>
-    <t>^\w+__UGP\w{0,1}$</t>
-  </si>
-  <si>
-    <t>2.7.7.9</t>
-  </si>
-  <si>
-    <t>R00289</t>
-  </si>
-  <si>
-    <t>Q16851</t>
-  </si>
-  <si>
-    <t>^\w+__UGALP\w{0,1}$</t>
-  </si>
-  <si>
-    <t>2.7.7.10</t>
-  </si>
-  <si>
-    <t>R00502</t>
-  </si>
-  <si>
-    <t>^\w+__ALDR\w{0,1}$</t>
-  </si>
-  <si>
-    <t>1.1.1.21</t>
-  </si>
-  <si>
-    <t>37967</t>
-  </si>
-  <si>
-    <t>R01095</t>
-  </si>
-  <si>
-    <t>P15121</t>
-  </si>
-  <si>
-    <t>ALDR_k_gal</t>
-  </si>
-  <si>
-    <t>ALDR_kcat</t>
-  </si>
-  <si>
-    <t>^\w+__PGM1\w{0,1}$</t>
-  </si>
-  <si>
-    <t>5.4.2.2</t>
-  </si>
-  <si>
-    <t>R00959</t>
-  </si>
-  <si>
-    <t>P36871</t>
-  </si>
-  <si>
-    <t>^\w+__PPASE$</t>
-  </si>
-  <si>
-    <t>3.6.1.1</t>
-  </si>
-  <si>
-    <t>R00004</t>
-  </si>
-  <si>
-    <t>Q15181</t>
-  </si>
-  <si>
-    <t>^\w+__NDKU$</t>
-  </si>
-  <si>
-    <t>2.7.4.6</t>
-  </si>
-  <si>
-    <t>R00156</t>
-  </si>
-  <si>
-    <t>^\w+__NADPR$</t>
-  </si>
-  <si>
-    <t>1.1.1.49</t>
-  </si>
-  <si>
-    <t>R00835</t>
-  </si>
-  <si>
-    <t>P11413</t>
-  </si>
-  <si>
-    <t>^\w+__ATPS$</t>
-  </si>
-  <si>
-    <t>R00086</t>
-  </si>
-  <si>
-    <t>13068</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>^\w+__GLY\w{0,1}$</t>
-  </si>
-  <si>
-    <t>^\w+__GTFGAL\w{0,1}$</t>
-  </si>
-  <si>
-    <t>^\w+__GTFGLC\w{0,1}$</t>
-  </si>
-  <si>
-    <t># species</t>
-  </si>
-  <si>
-    <t>^\w+__glc$</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>SBO:0000247</t>
-  </si>
-  <si>
-    <t>simple chemical</t>
-  </si>
-  <si>
-    <t>CHEBI:4167</t>
-  </si>
-  <si>
-    <t>chebi</t>
-  </si>
-  <si>
-    <t>D-glucopyranose</t>
-  </si>
-  <si>
-    <t>C00031</t>
-  </si>
-  <si>
-    <t>kegg.compound</t>
-  </si>
-  <si>
-    <t>D-Glucose</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>C6H12O6</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>^\w+__gal\w{0,1}$</t>
-  </si>
-  <si>
-    <t>CHEBI:28061</t>
-  </si>
-  <si>
-    <t>alpha-D-galactose</t>
-  </si>
-  <si>
-    <t>C00124</t>
-  </si>
-  <si>
-    <t>D-Galactose</t>
-  </si>
-  <si>
-    <t>^\w+__glc1p\w{0,1}$</t>
-  </si>
-  <si>
-    <t>CHEBI:58601</t>
-  </si>
-  <si>
-    <t>alpha-D-glucose 1-phosphate(2-)</t>
-  </si>
-  <si>
-    <t>C00103</t>
-  </si>
-  <si>
-    <t>D-Glucose 1-phosphate</t>
-  </si>
-  <si>
-    <t>C6H11O9P</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>^\w+__glc6p\w{0,1}$</t>
-  </si>
-  <si>
-    <t>CHEBI:58225</t>
-  </si>
-  <si>
-    <t>alpha-D-glucose 6-phosphate(2-)</t>
-  </si>
-  <si>
-    <t>C00668</t>
-  </si>
-  <si>
-    <t>alpha-D-Glucose 6-phosphate</t>
-  </si>
-  <si>
-    <t>^\w+__gal1p\w{0,1}$</t>
-  </si>
-  <si>
-    <t>CHEBI:58336</t>
-  </si>
-  <si>
-    <t>alpha-D-galactose 1-phosphate(2-)</t>
-  </si>
-  <si>
-    <t>C00446</t>
-  </si>
-  <si>
-    <t>alpha-D-Galactose 1-phosphate</t>
-  </si>
-  <si>
-    <t>^\w+__udpglc\w{0,1}$</t>
-  </si>
-  <si>
-    <t>CHEBI:58885</t>
-  </si>
-  <si>
-    <t>UDP-alpha-D-glucose(2-)</t>
-  </si>
-  <si>
-    <t>C00029</t>
-  </si>
-  <si>
-    <t>UDP-glucose</t>
-  </si>
-  <si>
-    <t>C15H22N2O17P2</t>
-  </si>
-  <si>
-    <t>^\w+__udpgal\w{0,1}$</t>
-  </si>
-  <si>
-    <t>CHEBI:66914</t>
-  </si>
-  <si>
-    <t>UDP-alpha-D-galactose(2-)</t>
-  </si>
-  <si>
-    <t>C00052</t>
-  </si>
-  <si>
-    <t>UDP-alpha-D-galactose</t>
-  </si>
-  <si>
-    <t>^\w+__galtol\w{0,1}$</t>
-  </si>
-  <si>
-    <t>CHEBI:16813</t>
-  </si>
-  <si>
-    <t>galactitol</t>
-  </si>
-  <si>
-    <t>C01697</t>
-  </si>
-  <si>
-    <t>Galactitol</t>
-  </si>
-  <si>
-    <t>C6H14O6</t>
-  </si>
-  <si>
-    <t>^\w+__atp$</t>
-  </si>
-  <si>
-    <t>CHEBI:30616</t>
-  </si>
-  <si>
-    <t>ATP(4-)</t>
-  </si>
-  <si>
-    <t>C00002</t>
-  </si>
-  <si>
-    <t>ATP</t>
-  </si>
-  <si>
-    <t>C10H12N5O13P3</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>^\w+__adp$</t>
-  </si>
-  <si>
-    <t>CHEBI:456216</t>
-  </si>
-  <si>
-    <t>ADP(3-)</t>
-  </si>
-  <si>
-    <t>C00008</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>C10H12N5O10P2</t>
-  </si>
-  <si>
-    <t>^\w+__utp$</t>
-  </si>
-  <si>
-    <t>CHEBI:46398</t>
-  </si>
-  <si>
-    <t>UTP(4-)</t>
-  </si>
-  <si>
-    <t>C00075</t>
-  </si>
-  <si>
-    <t>UTP</t>
-  </si>
-  <si>
-    <t>C9H11N2O15P3</t>
-  </si>
-  <si>
-    <t>^\w+__udp$</t>
-  </si>
-  <si>
-    <t>CHEBI:58223</t>
-  </si>
-  <si>
-    <t>UDP(3-)</t>
-  </si>
-  <si>
-    <t>C00015</t>
-  </si>
-  <si>
-    <t>UDP</t>
-  </si>
-  <si>
-    <t>C9H11N2O12P2</t>
-  </si>
-  <si>
-    <t>^\w+__phos$</t>
-  </si>
-  <si>
-    <t>CHEBI:43474</t>
-  </si>
-  <si>
-    <t>hydrogenphosphate</t>
-  </si>
-  <si>
-    <t>C00009</t>
-  </si>
-  <si>
-    <t>Phosphate</t>
-  </si>
-  <si>
-    <t>HO4P</t>
-  </si>
-  <si>
-    <t>^\w+__ppi$</t>
-  </si>
-  <si>
-    <t>CHEBI:33019</t>
-  </si>
-  <si>
-    <t>diphosphate(3-)</t>
-  </si>
-  <si>
-    <t>C00013</t>
-  </si>
-  <si>
-    <t>Diphosphate</t>
-  </si>
-  <si>
-    <t>HO7P2</t>
-  </si>
-  <si>
-    <t>^\w+__nadp$</t>
-  </si>
-  <si>
-    <t>CHEBI:58349</t>
-  </si>
-  <si>
-    <t>NADP(3-)</t>
-  </si>
-  <si>
-    <t>C00006</t>
-  </si>
-  <si>
-    <t>NADP+</t>
-  </si>
-  <si>
-    <t>C21H25N7O17P3</t>
-  </si>
-  <si>
-    <t>^\w+__nadph$</t>
-  </si>
-  <si>
-    <t>CHEBI:57783</t>
-  </si>
-  <si>
-    <t>NADPH(4-)</t>
-  </si>
-  <si>
-    <t>C00005</t>
-  </si>
-  <si>
-    <t>NADPH</t>
-  </si>
-  <si>
-    <t>C21H26N7O17P3</t>
-  </si>
-  <si>
-    <t>^\w+__acpt$</t>
-  </si>
-  <si>
-    <t>H2R</t>
-  </si>
-  <si>
-    <t>^\w+__acptglc\w{0,1}$</t>
-  </si>
-  <si>
-    <t>C6H1206R</t>
-  </si>
-  <si>
-    <t>^\w+__acptgal\w{0,1}$</t>
-  </si>
-  <si>
-    <t>^\w+__suc$</t>
-  </si>
-  <si>
-    <t>CHEBI:17992</t>
-  </si>
-  <si>
-    <t>sucrose</t>
-  </si>
-  <si>
-    <t>C00089</t>
-  </si>
-  <si>
-    <t>Sucrose</t>
-  </si>
-  <si>
-    <t>C12H22O11</t>
-  </si>
-  <si>
-    <t>^\w+__h2o\w{0,1}$</t>
-  </si>
-  <si>
-    <t>CHEBI:15377</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>C00001</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>^\w+__hydron$</t>
-  </si>
-  <si>
-    <t>CHEBI:15378</t>
-  </si>
-  <si>
-    <t>hydron</t>
-  </si>
-  <si>
-    <t>C00080</t>
-  </si>
-  <si>
-    <t>H+</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>^\w+__co2$</t>
-  </si>
-  <si>
-    <t>CHEBI:16526</t>
-  </si>
-  <si>
-    <t>carbon dioxide</t>
-  </si>
-  <si>
-    <t>C00011</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>^\w+__o2$</t>
-  </si>
-  <si>
-    <t>CHEBI:15379</t>
-  </si>
-  <si>
-    <t>dioxygen</t>
-  </si>
-  <si>
-    <t>C00007</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>^\w+__h2$</t>
-  </si>
-  <si>
-    <t>CHEBI:18276</t>
-  </si>
-  <si>
-    <t>dihydrogen</t>
-  </si>
-  <si>
-    <t>C00282</t>
-  </si>
-  <si>
-    <t>Hydrogen</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>^\w+__rbcM$</t>
-  </si>
-  <si>
-    <t>SBO:0000406</t>
-  </si>
-  <si>
-    <t>observable</t>
-  </si>
-  <si>
-    <t>BTO:0000424</t>
-  </si>
-  <si>
-    <t>erythrocyte</t>
-  </si>
-  <si>
-    <t>FMA:62845</t>
-  </si>
-  <si>
-    <t>c__alb</t>
-  </si>
-  <si>
-    <t>SBO:0000252</t>
-  </si>
-  <si>
-    <t>polypeptide chain</t>
-  </si>
-  <si>
-    <t>P02768</t>
-  </si>
-  <si>
-    <t>serum albumin</t>
-  </si>
-  <si>
-    <t># rules</t>
-  </si>
-  <si>
-    <t>^\w+__nadp_bal$</t>
-  </si>
-  <si>
-    <t>rule</t>
-  </si>
-  <si>
-    <t>SBO:0000196</t>
-  </si>
-  <si>
-    <t>concentration of an entity pool</t>
-  </si>
-  <si>
-    <t>^\w+__adp_bal$</t>
-  </si>
-  <si>
-    <t>^\w+__udp_bal$</t>
-  </si>
-  <si>
-    <t>^\w+__phos_bal$</t>
+    <t xml:space="preserve">pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sbml_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annotation_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qualifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BQM_IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBO:0000293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-spatial continuous framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^galactose_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BQB_HAS_TAXON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo sapiens (Human)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BQB_IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTO:0000759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uberon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBERON:0002107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMA:7197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTO:0000575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hepatocyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMA:14515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BQB_IS_VERSION_OF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PW:0000042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galactose metabolic pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kegg.pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map00052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galactose metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smpdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMP00043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0019388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galactose catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reactome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REACTOME:R-HSA-70370.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galactose catabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metacyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWY-6317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-galactose degradation I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBO:0000290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">physical compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMA:68646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMA:66836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portion of cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plasma membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMA:63841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMA:70022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+_kcat$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBO:0000025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalytic rate constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+_k_\w+$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBO:0000027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MichaelBQB_IS constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+_keq$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBO:0000281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equilibrium constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+_ki_\w+$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBO:0000261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitory constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># reactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__H2OTM$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBO:0000185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transport reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__GLUT2_GAL$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniprot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solute carrier family 2, facilitated glucose transporter member 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BQB_HAS_PROPERTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMIM:227810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanconi-Bickel syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__GLUT2_GALM$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__GALK\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBO:0000176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biochemical reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ec-code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7.1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P51570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kegg.reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R01092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REACTOME:R-HSA-70355.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BQB_IS_DESCRIBED_BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timson2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALK_kcat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sabiork.kineticrecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALK_k_atp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALK_k_gal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangiuolo2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__IMP\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.3.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P29218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__GALT\w{0,2}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7.7.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P07902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R00955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__GALE$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q14376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R00291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALE_k_udpgal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALE_kcat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__UGP\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7.7.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R00289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q16851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__UGALP\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7.7.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R00502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__ALDR\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R01095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P15121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDR_k_gal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDR_kcat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__PGM1\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R00959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P36871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__PPASE$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R00004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q15181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__NDKU$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7.4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R00156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__NADPR$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R00835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P11413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__ATPS$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R00086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__GLY\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__GTFGAL\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__GTFGLC\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__glc$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBO:0000247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simple chemical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chebi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:4167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glucopyranose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kegg.compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Glucose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6H12O6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__gal\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:28061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-D-galactose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Galactose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__glc1p\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:58601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-D-glucose 1-phosphate(2-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Glucose 1-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6H11O9P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__glc6p\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:58225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-D-glucose 6-phosphate(2-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-D-Glucose 6-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__gal1p\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:58336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-D-galactose 1-phosphate(2-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-D-Galactose 1-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__udpglc\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:58885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP-alpha-D-glucose(2-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP-glucose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15H22N2O17P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__udpgal\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:66914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP-alpha-D-galactose(2-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP-alpha-D-galactose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__galtol\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:16813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galactitol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C01697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galactitol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6H14O6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__atp$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:30616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP(4-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10H12N5O13P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__adp$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:456216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADP(3-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10H12N5O10P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__utp$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:46398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP(4-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9H11N2O15P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__udp$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:58223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP(3-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9H11N2O12P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__phos$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:43474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydrogenphosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HO4P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__ppi$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:33019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diphosphate(3-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diphosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HO7P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__nadp$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:58349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADP(3-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADP+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21H25N7O17P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__nadph$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:57783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADPH(4-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21H26N7O17P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__acpt$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__acptglc\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6H1206R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__acptgal\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__suc$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:17992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sucrose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sucrose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12H22O11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__h2o\w{0,1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:15377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__hydron$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:15378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__co2$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:16526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon dioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__o2$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:15379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dioxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__h2$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEBI:18276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dihydrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__rbcM$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBO:0000406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">observable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTO:0000424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erythrocyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMA:62845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c__alb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBO:0000252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polypeptide chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P02768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serum albumin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__nadp_bal$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBO:0000196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concentration of an entity pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__adp_bal$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__udp_bal$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\w+__phos_bal$</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1002,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="6">
@@ -1243,19 +1248,20 @@
   <dimension ref="A1:G308"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.6989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.6377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.0612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.5051020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.9234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.3367346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.7142857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="50.9540816326531"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="1" width="12.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,13 +1274,13 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1287,9 +1293,9 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,13 +1306,13 @@
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -1323,14 +1329,14 @@
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9" t="n">
         <v>9606</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>18</v>
@@ -1346,13 +1352,13 @@
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -1369,13 +1375,13 @@
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -1392,13 +1398,13 @@
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -1415,14 +1421,14 @@
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>27</v>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
+      <c r="F8" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>28</v>
@@ -1438,14 +1444,14 @@
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>28</v>
@@ -1461,13 +1467,13 @@
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -1484,13 +1490,13 @@
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -1507,11 +1513,11 @@
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>38</v>
@@ -1530,11 +1536,11 @@
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>40</v>
@@ -1543,7 +1549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
@@ -1553,11 +1559,11 @@
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>43</v>
@@ -1576,11 +1582,11 @@
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>46</v>
@@ -1593,8 +1599,8 @@
       <c r="A16" s="11"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
@@ -1604,9 +1610,9 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,14 +1625,14 @@
       <c r="C18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>52</v>
@@ -1642,14 +1648,14 @@
       <c r="C19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>54</v>
@@ -1665,14 +1671,14 @@
       <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>54</v>
@@ -1688,14 +1694,14 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>27</v>
+      <c r="D21" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
+      <c r="F21" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>28</v>
@@ -1711,14 +1717,14 @@
       <c r="C22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>28</v>
@@ -1743,14 +1749,14 @@
       <c r="C24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>52</v>
@@ -1766,14 +1772,14 @@
       <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>58</v>
@@ -1789,14 +1795,14 @@
       <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>60</v>
@@ -1821,14 +1827,14 @@
       <c r="C28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>52</v>
@@ -1844,14 +1850,14 @@
       <c r="C29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>63</v>
@@ -1867,14 +1873,14 @@
       <c r="C30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>63</v>
@@ -1899,14 +1905,14 @@
       <c r="C32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>52</v>
@@ -1922,14 +1928,14 @@
       <c r="C33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>67</v>
@@ -1945,14 +1951,14 @@
       <c r="C34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>67</v>
@@ -1962,9 +1968,9 @@
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="9"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,9 +1979,9 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,14 +1994,14 @@
       <c r="C37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>73</v>
@@ -2011,14 +2017,14 @@
       <c r="C38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>76</v>
@@ -2034,14 +2040,14 @@
       <c r="C39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>79</v>
@@ -2057,14 +2063,14 @@
       <c r="C40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>82</v>
@@ -2074,9 +2080,9 @@
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="9"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,9 +2091,9 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,14 +2106,14 @@
       <c r="C43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>87</v>
@@ -2132,20 +2138,20 @@
       <c r="C45" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
         <v>88</v>
       </c>
@@ -2155,13 +2161,13 @@
       <c r="C46" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G46" s="9" t="s">
@@ -2178,13 +2184,13 @@
       <c r="C47" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>92</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="8" t="s">
         <v>94</v>
       </c>
       <c r="G47" s="9" t="s">
@@ -2210,20 +2216,20 @@
       <c r="C49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
         <v>96</v>
       </c>
@@ -2233,13 +2239,13 @@
       <c r="C50" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G50" s="9" t="s">
@@ -2256,14 +2262,14 @@
       <c r="C51" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="8" t="n">
-        <v>227810</v>
+      <c r="D51" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>94</v>
+      <c r="F51" s="8" t="n">
+        <v>227810</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>95</v>
@@ -2288,14 +2294,14 @@
       <c r="C53" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>99</v>
@@ -2311,13 +2317,13 @@
       <c r="C54" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="13" t="s">
         <v>101</v>
       </c>
       <c r="G54" s="0"/>
@@ -2332,14 +2338,14 @@
       <c r="C55" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G55" s="0"/>
     </row>
@@ -2353,13 +2359,13 @@
       <c r="C56" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="8" t="s">
         <v>104</v>
       </c>
       <c r="G56" s="0"/>
@@ -2374,18 +2380,18 @@
       <c r="C57" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="8" t="n">
+      <c r="D57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" s="8" t="n">
         <v>13556</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="G57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
         <v>97</v>
       </c>
@@ -2395,14 +2401,14 @@
       <c r="C58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="G58" s="0"/>
     </row>
@@ -2416,14 +2422,14 @@
       <c r="C59" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="8" t="n">
-        <v>230200</v>
+      <c r="D59" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>94</v>
+      <c r="F59" s="8" t="n">
+        <v>230200</v>
       </c>
       <c r="G59" s="0"/>
     </row>
@@ -2437,14 +2443,14 @@
       <c r="C60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="8" t="n">
+      <c r="D60" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="8" t="n">
         <v>12694189</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>109</v>
@@ -2454,9 +2460,9 @@
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
+      <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="8"/>
       <c r="G61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2469,14 +2475,14 @@
       <c r="C62" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="8" t="n">
+      <c r="D62" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F62" s="8" t="n">
         <v>14785</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G62" s="0"/>
     </row>
@@ -2490,14 +2496,14 @@
       <c r="C63" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="8" t="n">
+      <c r="D63" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" s="8" t="n">
         <v>12694189</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>109</v>
@@ -2513,14 +2519,14 @@
       <c r="C64" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="8" t="n">
+      <c r="D64" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" s="8" t="n">
         <v>14792</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G64" s="0"/>
     </row>
@@ -2534,14 +2540,14 @@
       <c r="C65" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="8" t="n">
+      <c r="D65" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="8" t="n">
         <v>12694189</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>109</v>
@@ -2557,14 +2563,14 @@
       <c r="C66" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="8" t="n">
+      <c r="D66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F66" s="8" t="n">
         <v>14785</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G66" s="0"/>
     </row>
@@ -2578,14 +2584,14 @@
       <c r="C67" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="8" t="n">
+      <c r="D67" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" s="8" t="n">
         <v>12694189</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>109</v>
@@ -2601,14 +2607,14 @@
       <c r="C68" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="8" t="n">
+      <c r="D68" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" s="8" t="n">
         <v>45367</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G68" s="0"/>
     </row>
@@ -2622,14 +2628,14 @@
       <c r="C69" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="8" t="n">
+      <c r="D69" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="8" t="n">
         <v>15024738</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>114</v>
@@ -2654,14 +2660,14 @@
       <c r="C71" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>99</v>
@@ -2677,14 +2683,14 @@
       <c r="C72" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G72" s="0"/>
     </row>
@@ -2698,14 +2704,14 @@
       <c r="C73" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G73" s="0"/>
     </row>
@@ -2728,14 +2734,14 @@
       <c r="C75" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>99</v>
@@ -2751,14 +2757,14 @@
       <c r="C76" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G76" s="0"/>
     </row>
@@ -2772,14 +2778,14 @@
       <c r="C77" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G77" s="0"/>
     </row>
@@ -2793,14 +2799,14 @@
       <c r="C78" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="8" t="n">
+      <c r="D78" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" s="8" t="n">
         <v>13992</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G78" s="0"/>
     </row>
@@ -2814,14 +2820,14 @@
       <c r="C79" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="G79" s="0"/>
     </row>
@@ -2835,14 +2841,14 @@
       <c r="C80" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="8" t="n">
-        <v>230400</v>
+      <c r="D80" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>94</v>
+      <c r="F80" s="8" t="n">
+        <v>230400</v>
       </c>
       <c r="G80" s="0"/>
     </row>
@@ -2865,14 +2871,14 @@
       <c r="C82" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>99</v>
@@ -2888,14 +2894,14 @@
       <c r="C83" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G83" s="0"/>
     </row>
@@ -2909,14 +2915,14 @@
       <c r="C84" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G84" s="0"/>
     </row>
@@ -2930,14 +2936,14 @@
       <c r="C85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="8" t="n">
+      <c r="D85" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F85" s="8" t="n">
         <v>22171</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G85" s="0"/>
     </row>
@@ -2951,14 +2957,14 @@
       <c r="C86" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="G86" s="0"/>
     </row>
@@ -2972,14 +2978,14 @@
       <c r="C87" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="8" t="n">
-        <v>230350</v>
+      <c r="D87" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>94</v>
+      <c r="F87" s="8" t="n">
+        <v>230350</v>
       </c>
       <c r="G87" s="0"/>
     </row>
@@ -2993,14 +2999,14 @@
       <c r="C88" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="8" t="n">
+      <c r="D88" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F88" s="8" t="n">
         <v>19823</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G88" s="0"/>
     </row>
@@ -3014,14 +3020,14 @@
       <c r="C89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="8" t="n">
+      <c r="D89" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F89" s="8" t="n">
         <v>46260</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G89" s="0"/>
     </row>
@@ -3035,14 +3041,14 @@
       <c r="C90" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="8" t="n">
+      <c r="D90" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F90" s="8" t="n">
         <v>16222</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G90" s="0"/>
     </row>
@@ -3056,14 +3062,14 @@
       <c r="C91" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="8" t="n">
+      <c r="D91" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F91" s="8" t="n">
         <v>46263</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G91" s="0"/>
     </row>
@@ -3086,14 +3092,14 @@
       <c r="C93" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>99</v>
@@ -3109,14 +3115,14 @@
       <c r="C94" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G94" s="0"/>
     </row>
@@ -3130,14 +3136,14 @@
       <c r="C95" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="8" t="n">
+      <c r="D95" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F95" s="8" t="n">
         <v>19892</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G95" s="0"/>
     </row>
@@ -3151,14 +3157,14 @@
       <c r="C96" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="G96" s="0"/>
     </row>
@@ -3172,14 +3178,14 @@
       <c r="C97" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G97" s="0"/>
     </row>
@@ -3202,14 +3208,14 @@
       <c r="C99" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>99</v>
@@ -3225,14 +3231,14 @@
       <c r="C100" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G100" s="0"/>
     </row>
@@ -3246,14 +3252,14 @@
       <c r="C101" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D101" s="8" t="n">
+      <c r="D101" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F101" s="8" t="n">
         <v>14212</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G101" s="0"/>
     </row>
@@ -3267,14 +3273,14 @@
       <c r="C102" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F102" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="G102" s="0"/>
     </row>
@@ -3288,14 +3294,14 @@
       <c r="C103" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F103" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G103" s="0"/>
     </row>
@@ -3318,14 +3324,14 @@
       <c r="C105" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>99</v>
@@ -3341,14 +3347,14 @@
       <c r="C106" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F106" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G106" s="0"/>
     </row>
@@ -3362,14 +3368,14 @@
       <c r="C107" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F107" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G107" s="0"/>
     </row>
@@ -3383,14 +3389,14 @@
       <c r="C108" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F108" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="G108" s="0"/>
     </row>
@@ -3404,14 +3410,14 @@
       <c r="C109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F109" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G109" s="0"/>
     </row>
@@ -3425,14 +3431,14 @@
       <c r="C110" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D110" s="8" t="n">
+      <c r="D110" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F110" s="8" t="n">
         <v>22893</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G110" s="0"/>
     </row>
@@ -3446,14 +3452,14 @@
       <c r="C111" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="8" t="n">
+      <c r="D111" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F111" s="8" t="n">
         <v>22893</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G111" s="0"/>
     </row>
@@ -3467,14 +3473,14 @@
       <c r="C112" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D112" s="8" t="n">
+      <c r="D112" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F112" s="8" t="n">
         <v>15695</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G112" s="0"/>
     </row>
@@ -3497,14 +3503,14 @@
       <c r="C114" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>99</v>
@@ -3520,14 +3526,14 @@
       <c r="C115" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F115" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G115" s="0"/>
     </row>
@@ -3541,14 +3547,14 @@
       <c r="C116" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D116" s="8" t="n">
+      <c r="D116" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F116" s="8" t="n">
         <v>23539</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G116" s="0"/>
     </row>
@@ -3562,14 +3568,14 @@
       <c r="C117" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F117" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="G117" s="0"/>
     </row>
@@ -3583,14 +3589,14 @@
       <c r="C118" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F118" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G118" s="0"/>
     </row>
@@ -3604,14 +3610,14 @@
       <c r="C119" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D119" s="8" t="n">
-        <v>612934</v>
+      <c r="D119" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="7" t="s">
-        <v>94</v>
+      <c r="F119" s="8" t="n">
+        <v>612934</v>
       </c>
       <c r="G119" s="0"/>
     </row>
@@ -3634,14 +3640,14 @@
       <c r="C121" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G121" s="10" t="s">
         <v>99</v>
@@ -3657,14 +3663,14 @@
       <c r="C122" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F122" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G122" s="0"/>
     </row>
@@ -3678,14 +3684,14 @@
       <c r="C123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="8" t="n">
+      <c r="D123" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F123" s="8" t="n">
         <v>24579</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G123" s="0"/>
     </row>
@@ -3699,14 +3705,14 @@
       <c r="C124" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F124" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="G124" s="0"/>
     </row>
@@ -3720,14 +3726,14 @@
       <c r="C125" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F125" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G125" s="0"/>
     </row>
@@ -3750,14 +3756,14 @@
       <c r="C127" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G127" s="10" t="s">
         <v>99</v>
@@ -3773,14 +3779,14 @@
       <c r="C128" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F128" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G128" s="0"/>
     </row>
@@ -3794,14 +3800,14 @@
       <c r="C129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D129" s="8" t="n">
+      <c r="D129" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F129" s="8" t="n">
         <v>25101</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G129" s="0"/>
     </row>
@@ -3815,14 +3821,14 @@
       <c r="C130" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="G130" s="0"/>
     </row>
@@ -3845,14 +3851,14 @@
       <c r="C132" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G132" s="10" t="s">
         <v>99</v>
@@ -3868,14 +3874,14 @@
       <c r="C133" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F133" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G133" s="0"/>
     </row>
@@ -3889,14 +3895,14 @@
       <c r="C134" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D134" s="8" t="n">
+      <c r="D134" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F134" s="8" t="n">
         <v>15844</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G134" s="0"/>
     </row>
@@ -3910,14 +3916,14 @@
       <c r="C135" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F135" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="G135" s="0"/>
     </row>
@@ -3931,14 +3937,14 @@
       <c r="C136" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F136" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G136" s="0"/>
     </row>
@@ -3961,14 +3967,14 @@
       <c r="C138" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>99</v>
@@ -3984,14 +3990,14 @@
       <c r="C139" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D139" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F139" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="G139" s="0"/>
     </row>
@@ -4005,14 +4011,14 @@
       <c r="C140" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F140" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G140" s="0"/>
     </row>
@@ -4022,11 +4028,11 @@
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F141" s="7"/>
+      <c r="D141" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E141" s="7"/>
+      <c r="F141" s="8"/>
       <c r="G141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,14 +4054,14 @@
       <c r="C143" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G143" s="10" t="s">
         <v>99</v>
@@ -4067,11 +4073,11 @@
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F144" s="7"/>
+      <c r="D144" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E144" s="7"/>
+      <c r="F144" s="8"/>
       <c r="G144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4093,14 +4099,14 @@
       <c r="C146" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G146" s="10" t="s">
         <v>99</v>
@@ -4125,14 +4131,14 @@
       <c r="C148" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>99</v>
@@ -4142,9 +4148,9 @@
       <c r="A149" s="0"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
-      <c r="D149" s="8"/>
+      <c r="D149" s="7"/>
       <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
+      <c r="F149" s="8"/>
       <c r="G149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4153,9 +4159,9 @@
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
-      <c r="D150" s="6"/>
+      <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
+      <c r="F150" s="6"/>
       <c r="G150" s="5"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,14 +4174,14 @@
       <c r="C151" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G151" s="10" t="s">
         <v>168</v>
@@ -4191,13 +4197,13 @@
       <c r="C152" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="D152" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E152" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F152" s="7" t="s">
+      <c r="F152" s="8" t="s">
         <v>170</v>
       </c>
       <c r="G152" s="9" t="s">
@@ -4214,13 +4220,13 @@
       <c r="C153" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D153" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E153" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F153" s="7" t="s">
+      <c r="F153" s="8" t="s">
         <v>173</v>
       </c>
       <c r="G153" s="10" t="s">
@@ -4237,11 +4243,11 @@
       <c r="C154" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
       <c r="G154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,11 +4260,11 @@
       <c r="C155" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
       <c r="G155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4280,14 +4286,14 @@
       <c r="C157" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G157" s="10" t="s">
         <v>168</v>
@@ -4303,14 +4309,14 @@
       <c r="C158" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D158" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F158" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G158" s="9" t="s">
         <v>181</v>
@@ -4326,14 +4332,14 @@
       <c r="C159" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D159" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F159" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G159" s="9" t="s">
         <v>183</v>
@@ -4349,11 +4355,11 @@
       <c r="C160" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
       <c r="G160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4366,11 +4372,11 @@
       <c r="C161" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
       <c r="G161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,14 +4398,14 @@
       <c r="C163" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G163" s="10" t="s">
         <v>168</v>
@@ -4415,14 +4421,14 @@
       <c r="C164" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F164" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G164" s="9" t="s">
         <v>186</v>
@@ -4438,14 +4444,14 @@
       <c r="C165" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D165" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F165" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G165" s="9" t="s">
         <v>188</v>
@@ -4461,11 +4467,11 @@
       <c r="C166" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D166" s="14" t="s">
+      <c r="D166" s="0"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="E166" s="0"/>
-      <c r="F166" s="7"/>
       <c r="G166" s="0"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,11 +4484,11 @@
       <c r="C167" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="8" t="s">
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
       <c r="G167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4504,14 +4510,14 @@
       <c r="C169" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G169" s="10" t="s">
         <v>168</v>
@@ -4527,14 +4533,14 @@
       <c r="C170" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D170" s="8" t="s">
+      <c r="D170" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F170" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="E170" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G170" s="9" t="s">
         <v>193</v>
@@ -4550,14 +4556,14 @@
       <c r="C171" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="D171" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F171" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G171" s="9" t="s">
         <v>195</v>
@@ -4573,11 +4579,11 @@
       <c r="C172" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
       <c r="G172" s="0"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,11 +4596,11 @@
       <c r="C173" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
       <c r="G173" s="0"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,14 +4622,14 @@
       <c r="C175" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G175" s="10" t="s">
         <v>168</v>
@@ -4639,14 +4645,14 @@
       <c r="C176" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D176" s="8" t="s">
+      <c r="D176" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F176" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G176" s="9" t="s">
         <v>198</v>
@@ -4662,14 +4668,14 @@
       <c r="C177" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D177" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F177" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="E177" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G177" s="9" t="s">
         <v>200</v>
@@ -4685,11 +4691,11 @@
       <c r="C178" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
       <c r="G178" s="0"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4702,11 +4708,11 @@
       <c r="C179" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D179" s="8" t="s">
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
       <c r="G179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4728,14 +4734,14 @@
       <c r="C181" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D181" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G181" s="10" t="s">
         <v>168</v>
@@ -4751,14 +4757,14 @@
       <c r="C182" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D182" s="8" t="s">
+      <c r="D182" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F182" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G182" s="9" t="s">
         <v>203</v>
@@ -4774,14 +4780,14 @@
       <c r="C183" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D183" s="8" t="s">
+      <c r="D183" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F183" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G183" s="9" t="s">
         <v>205</v>
@@ -4797,11 +4803,11 @@
       <c r="C184" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
       <c r="G184" s="0"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,11 +4820,11 @@
       <c r="C185" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D185" s="8" t="s">
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
       <c r="G185" s="0"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4840,14 +4846,14 @@
       <c r="C187" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D187" s="9" t="s">
+      <c r="D187" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G187" s="10" t="s">
         <v>168</v>
@@ -4863,14 +4869,14 @@
       <c r="C188" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D188" s="8" t="s">
+      <c r="D188" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F188" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="E188" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G188" s="9" t="s">
         <v>209</v>
@@ -4886,14 +4892,14 @@
       <c r="C189" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D189" s="8" t="s">
+      <c r="D189" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F189" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="E189" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G189" s="9" t="s">
         <v>211</v>
@@ -4909,11 +4915,11 @@
       <c r="C190" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
       <c r="G190" s="0"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4926,11 +4932,11 @@
       <c r="C191" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D191" s="15" t="n">
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="15" t="n">
         <v>-2</v>
       </c>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
       <c r="G191" s="0"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,14 +4958,14 @@
       <c r="C193" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="D193" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G193" s="10" t="s">
         <v>168</v>
@@ -4975,14 +4981,14 @@
       <c r="C194" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D194" s="8" t="s">
+      <c r="D194" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F194" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="E194" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G194" s="9" t="s">
         <v>214</v>
@@ -4998,14 +5004,14 @@
       <c r="C195" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="D195" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F195" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="E195" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G195" s="9" t="s">
         <v>216</v>
@@ -5021,11 +5027,11 @@
       <c r="C196" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D196" s="9" t="s">
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E196" s="7"/>
-      <c r="F196" s="7"/>
       <c r="G196" s="0"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5038,11 +5044,11 @@
       <c r="C197" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D197" s="8" t="s">
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E197" s="7"/>
-      <c r="F197" s="7"/>
       <c r="G197" s="0"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,14 +5070,14 @@
       <c r="C199" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D199" s="9" t="s">
+      <c r="D199" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F199" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E199" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G199" s="10" t="s">
         <v>168</v>
@@ -5087,14 +5093,14 @@
       <c r="C200" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D200" s="8" t="s">
+      <c r="D200" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F200" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="E200" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F200" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G200" s="9" t="s">
         <v>220</v>
@@ -5110,14 +5116,14 @@
       <c r="C201" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D201" s="8" t="s">
+      <c r="D201" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F201" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G201" s="9" t="s">
         <v>222</v>
@@ -5133,11 +5139,11 @@
       <c r="C202" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D202" s="9" t="s">
+      <c r="D202" s="7"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E202" s="7"/>
-      <c r="F202" s="7"/>
       <c r="G202" s="0"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5150,11 +5156,11 @@
       <c r="C203" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D203" s="8" t="s">
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E203" s="7"/>
-      <c r="F203" s="7"/>
       <c r="G203" s="0"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,14 +5182,14 @@
       <c r="C205" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D205" s="9" t="s">
+      <c r="D205" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G205" s="10" t="s">
         <v>168</v>
@@ -5199,14 +5205,14 @@
       <c r="C206" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D206" s="8" t="s">
+      <c r="D206" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F206" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="E206" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F206" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G206" s="9" t="s">
         <v>227</v>
@@ -5222,14 +5228,14 @@
       <c r="C207" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D207" s="8" t="s">
+      <c r="D207" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F207" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G207" s="9" t="s">
         <v>229</v>
@@ -5245,11 +5251,11 @@
       <c r="C208" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D208" s="9" t="s">
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="E208" s="7"/>
-      <c r="F208" s="7"/>
       <c r="G208" s="0"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,11 +5268,11 @@
       <c r="C209" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D209" s="15" t="n">
+      <c r="D209" s="7"/>
+      <c r="E209" s="7"/>
+      <c r="F209" s="15" t="n">
         <v>-3</v>
       </c>
-      <c r="E209" s="7"/>
-      <c r="F209" s="7"/>
       <c r="G209" s="0"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,14 +5294,14 @@
       <c r="C211" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D211" s="9" t="s">
+      <c r="D211" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F211" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E211" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F211" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G211" s="10" t="s">
         <v>168</v>
@@ -5311,14 +5317,14 @@
       <c r="C212" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D212" s="8" t="s">
+      <c r="D212" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F212" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="E212" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F212" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G212" s="9" t="s">
         <v>233</v>
@@ -5334,14 +5340,14 @@
       <c r="C213" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D213" s="8" t="s">
+      <c r="D213" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F213" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="E213" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F213" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G213" s="9" t="s">
         <v>235</v>
@@ -5357,11 +5363,11 @@
       <c r="C214" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D214" s="9" t="s">
+      <c r="D214" s="7"/>
+      <c r="E214" s="7"/>
+      <c r="F214" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E214" s="7"/>
-      <c r="F214" s="7"/>
       <c r="G214" s="0"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5374,11 +5380,11 @@
       <c r="C215" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D215" s="8" t="s">
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E215" s="7"/>
-      <c r="F215" s="7"/>
       <c r="G215" s="0"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,14 +5406,14 @@
       <c r="C217" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D217" s="9" t="s">
+      <c r="D217" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F217" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E217" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F217" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G217" s="10" t="s">
         <v>168</v>
@@ -5423,14 +5429,14 @@
       <c r="C218" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D218" s="8" t="s">
+      <c r="D218" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F218" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="E218" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F218" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G218" s="9" t="s">
         <v>239</v>
@@ -5446,14 +5452,14 @@
       <c r="C219" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D219" s="8" t="s">
+      <c r="D219" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F219" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="E219" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F219" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G219" s="9" t="s">
         <v>241</v>
@@ -5469,11 +5475,11 @@
       <c r="C220" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D220" s="9" t="s">
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E220" s="7"/>
-      <c r="F220" s="7"/>
       <c r="G220" s="0"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5486,11 +5492,11 @@
       <c r="C221" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D221" s="15" t="n">
+      <c r="D221" s="7"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="15" t="n">
         <v>-3</v>
       </c>
-      <c r="E221" s="7"/>
-      <c r="F221" s="7"/>
       <c r="G221" s="0"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,14 +5518,14 @@
       <c r="C223" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D223" s="9" t="s">
+      <c r="D223" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F223" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E223" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F223" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G223" s="10" t="s">
         <v>168</v>
@@ -5535,14 +5541,14 @@
       <c r="C224" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D224" s="8" t="s">
+      <c r="D224" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F224" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="E224" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F224" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G224" s="9" t="s">
         <v>245</v>
@@ -5558,14 +5564,14 @@
       <c r="C225" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D225" s="8" t="s">
+      <c r="D225" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F225" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="E225" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F225" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G225" s="9" t="s">
         <v>247</v>
@@ -5581,11 +5587,11 @@
       <c r="C226" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D226" s="9" t="s">
+      <c r="D226" s="7"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E226" s="7"/>
-      <c r="F226" s="7"/>
       <c r="G226" s="0"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,11 +5604,11 @@
       <c r="C227" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D227" s="8" t="s">
+      <c r="D227" s="7"/>
+      <c r="E227" s="7"/>
+      <c r="F227" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E227" s="7"/>
-      <c r="F227" s="7"/>
       <c r="G227" s="0"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5624,14 +5630,14 @@
       <c r="C229" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D229" s="9" t="s">
+      <c r="D229" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F229" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E229" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F229" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G229" s="10" t="s">
         <v>168</v>
@@ -5647,14 +5653,14 @@
       <c r="C230" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D230" s="8" t="s">
+      <c r="D230" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F230" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="E230" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F230" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G230" s="9" t="s">
         <v>251</v>
@@ -5670,14 +5676,14 @@
       <c r="C231" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D231" s="8" t="s">
+      <c r="D231" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F231" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="E231" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F231" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G231" s="9" t="s">
         <v>253</v>
@@ -5693,11 +5699,11 @@
       <c r="C232" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D232" s="9" t="s">
+      <c r="D232" s="7"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E232" s="7"/>
-      <c r="F232" s="7"/>
       <c r="G232" s="0"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5710,11 +5716,11 @@
       <c r="C233" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D233" s="15" t="n">
+      <c r="D233" s="7"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="15" t="n">
         <v>-3</v>
       </c>
-      <c r="E233" s="7"/>
-      <c r="F233" s="7"/>
       <c r="G233" s="0"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5736,14 +5742,14 @@
       <c r="C235" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D235" s="9" t="s">
+      <c r="D235" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F235" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E235" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F235" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G235" s="10" t="s">
         <v>168</v>
@@ -5759,14 +5765,14 @@
       <c r="C236" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D236" s="8" t="s">
+      <c r="D236" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F236" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="E236" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F236" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G236" s="9" t="s">
         <v>257</v>
@@ -5782,14 +5788,14 @@
       <c r="C237" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D237" s="8" t="s">
+      <c r="D237" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F237" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="E237" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F237" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G237" s="9" t="s">
         <v>259</v>
@@ -5805,11 +5811,11 @@
       <c r="C238" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="D238" s="7"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E238" s="7"/>
-      <c r="F238" s="7"/>
       <c r="G238" s="0"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,11 +5828,11 @@
       <c r="C239" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D239" s="15" t="n">
+      <c r="D239" s="0"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="15" t="n">
         <v>-3</v>
       </c>
-      <c r="E239" s="0"/>
-      <c r="F239" s="7"/>
       <c r="G239" s="0"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,14 +5854,14 @@
       <c r="C241" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="D241" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F241" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E241" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F241" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G241" s="10" t="s">
         <v>168</v>
@@ -5871,14 +5877,14 @@
       <c r="C242" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D242" s="8" t="s">
+      <c r="D242" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F242" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="E242" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F242" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G242" s="9" t="s">
         <v>263</v>
@@ -5894,14 +5900,14 @@
       <c r="C243" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D243" s="8" t="s">
+      <c r="D243" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F243" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="E243" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F243" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G243" s="9" t="s">
         <v>265</v>
@@ -5917,11 +5923,11 @@
       <c r="C244" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D244" s="9" t="s">
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E244" s="7"/>
-      <c r="F244" s="7"/>
       <c r="G244" s="0"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5934,11 +5940,11 @@
       <c r="C245" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D245" s="15" t="n">
+      <c r="D245" s="7"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="15" t="n">
         <v>-4</v>
       </c>
-      <c r="E245" s="7"/>
-      <c r="F245" s="7"/>
       <c r="G245" s="0"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,14 +5966,14 @@
       <c r="C247" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D247" s="9" t="s">
+      <c r="D247" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F247" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E247" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F247" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G247" s="10" t="s">
         <v>168</v>
@@ -5983,11 +5989,11 @@
       <c r="C248" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D248" s="9" t="s">
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E248" s="7"/>
-      <c r="F248" s="7"/>
       <c r="G248" s="0"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6000,11 +6006,11 @@
       <c r="C249" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D249" s="15" t="n">
+      <c r="D249" s="7"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="E249" s="7"/>
-      <c r="F249" s="7"/>
       <c r="G249" s="0"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6026,14 +6032,14 @@
       <c r="C251" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D251" s="9" t="s">
+      <c r="D251" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E251" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F251" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E251" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F251" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G251" s="10" t="s">
         <v>168</v>
@@ -6049,11 +6055,11 @@
       <c r="C252" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D252" s="9" t="s">
+      <c r="D252" s="7"/>
+      <c r="E252" s="7"/>
+      <c r="F252" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E252" s="7"/>
-      <c r="F252" s="7"/>
       <c r="G252" s="0"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6066,11 +6072,11 @@
       <c r="C253" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D253" s="15" t="n">
+      <c r="D253" s="7"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="E253" s="7"/>
-      <c r="F253" s="7"/>
       <c r="G253" s="0"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6092,14 +6098,14 @@
       <c r="C255" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="D255" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E255" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F255" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E255" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F255" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G255" s="10" t="s">
         <v>168</v>
@@ -6115,11 +6121,11 @@
       <c r="C256" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E256" s="7"/>
-      <c r="F256" s="7"/>
       <c r="G256" s="0"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6132,11 +6138,11 @@
       <c r="C257" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D257" s="15" t="n">
+      <c r="D257" s="7"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="E257" s="7"/>
-      <c r="F257" s="7"/>
       <c r="G257" s="0"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6158,14 +6164,14 @@
       <c r="C259" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D259" s="9" t="s">
+      <c r="D259" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F259" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E259" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F259" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G259" s="10" t="s">
         <v>168</v>
@@ -6181,14 +6187,14 @@
       <c r="C260" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D260" s="8" t="s">
+      <c r="D260" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E260" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F260" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="E260" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F260" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G260" s="9" t="s">
         <v>274</v>
@@ -6204,14 +6210,14 @@
       <c r="C261" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D261" s="8" t="s">
+      <c r="D261" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E261" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F261" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="E261" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F261" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G261" s="9" t="s">
         <v>276</v>
@@ -6227,11 +6233,11 @@
       <c r="C262" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D262" s="9" t="s">
+      <c r="D262" s="7"/>
+      <c r="E262" s="7"/>
+      <c r="F262" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E262" s="7"/>
-      <c r="F262" s="7"/>
       <c r="G262" s="0"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6244,11 +6250,11 @@
       <c r="C263" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D263" s="8" t="s">
+      <c r="D263" s="7"/>
+      <c r="E263" s="7"/>
+      <c r="F263" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E263" s="7"/>
-      <c r="F263" s="7"/>
       <c r="G263" s="0"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6270,14 +6276,14 @@
       <c r="C265" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D265" s="9" t="s">
+      <c r="D265" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E265" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F265" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E265" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F265" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G265" s="10" t="s">
         <v>168</v>
@@ -6293,14 +6299,14 @@
       <c r="C266" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D266" s="8" t="s">
+      <c r="D266" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E266" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F266" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="E266" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F266" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G266" s="9" t="s">
         <v>280</v>
@@ -6316,14 +6322,14 @@
       <c r="C267" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D267" s="8" t="s">
+      <c r="D267" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F267" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="E267" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F267" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G267" s="9" t="s">
         <v>282</v>
@@ -6339,11 +6345,11 @@
       <c r="C268" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D268" s="9" t="s">
+      <c r="D268" s="7"/>
+      <c r="E268" s="7"/>
+      <c r="F268" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E268" s="7"/>
-      <c r="F268" s="7"/>
       <c r="G268" s="0"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6356,11 +6362,11 @@
       <c r="C269" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D269" s="8" t="s">
+      <c r="D269" s="7"/>
+      <c r="E269" s="7"/>
+      <c r="F269" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E269" s="7"/>
-      <c r="F269" s="7"/>
       <c r="G269" s="0"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6382,14 +6388,14 @@
       <c r="C271" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D271" s="9" t="s">
+      <c r="D271" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F271" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E271" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F271" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G271" s="10" t="s">
         <v>168</v>
@@ -6405,14 +6411,14 @@
       <c r="C272" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D272" s="8" t="s">
+      <c r="D272" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E272" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F272" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="E272" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F272" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G272" s="9" t="s">
         <v>285</v>
@@ -6428,14 +6434,14 @@
       <c r="C273" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D273" s="8" t="s">
+      <c r="D273" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E273" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F273" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="E273" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F273" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G273" s="9" t="s">
         <v>287</v>
@@ -6451,11 +6457,11 @@
       <c r="C274" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D274" s="9" t="s">
+      <c r="D274" s="7"/>
+      <c r="E274" s="7"/>
+      <c r="F274" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E274" s="7"/>
-      <c r="F274" s="7"/>
       <c r="G274" s="0"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6468,11 +6474,11 @@
       <c r="C275" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D275" s="8" t="s">
+      <c r="D275" s="7"/>
+      <c r="E275" s="7"/>
+      <c r="F275" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="E275" s="7"/>
-      <c r="F275" s="7"/>
       <c r="G275" s="0"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6494,14 +6500,14 @@
       <c r="C277" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D277" s="9" t="s">
+      <c r="D277" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E277" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F277" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E277" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F277" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G277" s="10" t="s">
         <v>168</v>
@@ -6517,14 +6523,14 @@
       <c r="C278" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D278" s="8" t="s">
+      <c r="D278" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E278" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F278" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="E278" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F278" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G278" s="9" t="s">
         <v>292</v>
@@ -6540,14 +6546,14 @@
       <c r="C279" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D279" s="8" t="s">
+      <c r="D279" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E279" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F279" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="E279" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F279" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G279" s="9" t="s">
         <v>294</v>
@@ -6563,11 +6569,11 @@
       <c r="C280" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D280" s="9" t="s">
+      <c r="D280" s="7"/>
+      <c r="E280" s="7"/>
+      <c r="F280" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E280" s="7"/>
-      <c r="F280" s="7"/>
       <c r="G280" s="0"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6580,11 +6586,11 @@
       <c r="C281" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="8" t="s">
+      <c r="D281" s="7"/>
+      <c r="E281" s="7"/>
+      <c r="F281" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E281" s="7"/>
-      <c r="F281" s="7"/>
       <c r="G281" s="0"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6606,14 +6612,14 @@
       <c r="C283" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D283" s="9" t="s">
+      <c r="D283" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E283" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F283" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E283" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F283" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G283" s="10" t="s">
         <v>168</v>
@@ -6629,14 +6635,14 @@
       <c r="C284" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D284" s="8" t="s">
+      <c r="D284" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E284" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F284" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="E284" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F284" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G284" s="9" t="s">
         <v>297</v>
@@ -6652,14 +6658,14 @@
       <c r="C285" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D285" s="8" t="s">
+      <c r="D285" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E285" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F285" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="E285" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F285" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G285" s="9" t="s">
         <v>299</v>
@@ -6675,11 +6681,11 @@
       <c r="C286" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D286" s="9" t="s">
+      <c r="D286" s="7"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="E286" s="7"/>
-      <c r="F286" s="7"/>
       <c r="G286" s="0"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6692,11 +6698,11 @@
       <c r="C287" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D287" s="8" t="s">
+      <c r="D287" s="7"/>
+      <c r="E287" s="7"/>
+      <c r="F287" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E287" s="7"/>
-      <c r="F287" s="7"/>
       <c r="G287" s="0"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6718,14 +6724,14 @@
       <c r="C289" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D289" s="9" t="s">
+      <c r="D289" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E289" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F289" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E289" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F289" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G289" s="10" t="s">
         <v>168</v>
@@ -6741,14 +6747,14 @@
       <c r="C290" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D290" s="8" t="s">
+      <c r="D290" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E290" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F290" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="E290" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F290" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G290" s="9" t="s">
         <v>302</v>
@@ -6764,14 +6770,14 @@
       <c r="C291" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D291" s="8" t="s">
+      <c r="D291" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E291" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F291" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="E291" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F291" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G291" s="9" t="s">
         <v>304</v>
@@ -6787,11 +6793,11 @@
       <c r="C292" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D292" s="9" t="s">
+      <c r="D292" s="7"/>
+      <c r="E292" s="7"/>
+      <c r="F292" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E292" s="7"/>
-      <c r="F292" s="7"/>
       <c r="G292" s="0"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6804,11 +6810,11 @@
       <c r="C293" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D293" s="8" t="s">
+      <c r="D293" s="7"/>
+      <c r="E293" s="7"/>
+      <c r="F293" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E293" s="7"/>
-      <c r="F293" s="7"/>
       <c r="G293" s="0"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6830,14 +6836,14 @@
       <c r="C295" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D295" s="9" t="s">
+      <c r="D295" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E295" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F295" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="E295" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F295" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G295" s="9" t="s">
         <v>308</v>
@@ -6853,14 +6859,14 @@
       <c r="C296" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D296" s="8" t="s">
-        <v>309</v>
+      <c r="D296" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E296" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F296" s="7" t="s">
-        <v>21</v>
+      <c r="F296" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="G296" s="10" t="s">
         <v>310</v>
@@ -6876,14 +6882,14 @@
       <c r="C297" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D297" s="9" t="s">
+      <c r="D297" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E297" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F297" s="9" t="s">
         <v>311</v>
-      </c>
-      <c r="E297" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F297" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G297" s="10" t="s">
         <v>310</v>
@@ -6899,14 +6905,14 @@
       <c r="C298" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D298" s="9" t="s">
+      <c r="D298" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E298" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F298" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="E298" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F298" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G298" s="9" t="s">
         <v>54</v>
@@ -6922,14 +6928,14 @@
       <c r="C299" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D299" s="9" t="s">
+      <c r="D299" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E299" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F299" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="E299" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F299" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G299" s="9" t="s">
         <v>54</v>
@@ -6954,14 +6960,14 @@
       <c r="C301" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D301" s="9" t="s">
+      <c r="D301" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E301" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F301" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="E301" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F301" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G301" s="10" t="s">
         <v>314</v>
@@ -6977,14 +6983,14 @@
       <c r="C302" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D302" s="9" t="s">
+      <c r="D302" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E302" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F302" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="E302" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F302" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G302" s="9" t="s">
         <v>316</v>
@@ -7005,9 +7011,9 @@
       </c>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
-      <c r="D304" s="6"/>
+      <c r="D304" s="5"/>
       <c r="E304" s="5"/>
-      <c r="F304" s="5"/>
+      <c r="F304" s="6"/>
       <c r="G304" s="5"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7020,14 +7026,14 @@
       <c r="C305" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D305" s="9" t="s">
+      <c r="D305" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E305" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F305" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="E305" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F305" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G305" s="9" t="s">
         <v>321</v>
@@ -7043,14 +7049,14 @@
       <c r="C306" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D306" s="9" t="s">
+      <c r="D306" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E306" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F306" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="E306" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F306" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G306" s="9" t="s">
         <v>321</v>
@@ -7066,14 +7072,14 @@
       <c r="C307" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D307" s="9" t="s">
+      <c r="D307" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E307" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F307" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="E307" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F307" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G307" s="9" t="s">
         <v>321</v>
@@ -7089,14 +7095,14 @@
       <c r="C308" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D308" s="9" t="s">
+      <c r="D308" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E308" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F308" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="E308" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F308" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G308" s="9" t="s">
         <v>321</v>
